--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Scgb3a1-Marco.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Scgb3a1-Marco.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Marco</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,37 +531,37 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.206231</v>
+        <v>0.977367</v>
       </c>
       <c r="H2">
-        <v>0.618693</v>
+        <v>2.932101</v>
       </c>
       <c r="I2">
-        <v>0.1428679300703564</v>
+        <v>0.3701077125291157</v>
       </c>
       <c r="J2">
-        <v>0.1428679300703564</v>
+        <v>0.3701077125291156</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.013454</v>
+        <v>0.201254</v>
       </c>
       <c r="N2">
-        <v>0.040362</v>
+        <v>0.603762</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.002774631874</v>
+        <v>0.196699018218</v>
       </c>
       <c r="R2">
-        <v>0.024971686866</v>
+        <v>1.770291163962</v>
       </c>
       <c r="S2">
-        <v>0.1428679300703564</v>
+        <v>0.3701077125291157</v>
       </c>
       <c r="T2">
-        <v>0.1428679300703564</v>
+        <v>0.3701077125291156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,22 +608,22 @@
         <v>0.80175</v>
       </c>
       <c r="I3">
-        <v>0.1851392579743237</v>
+        <v>0.1012017862004817</v>
       </c>
       <c r="J3">
-        <v>0.1851392579743236</v>
+        <v>0.1012017862004817</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.013454</v>
+        <v>0.201254</v>
       </c>
       <c r="N3">
-        <v>0.040362</v>
+        <v>0.603762</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0035955815</v>
+        <v>0.0537851315</v>
       </c>
       <c r="R3">
-        <v>0.0323602335</v>
+        <v>0.4840661835</v>
       </c>
       <c r="S3">
-        <v>0.1851392579743237</v>
+        <v>0.1012017862004817</v>
       </c>
       <c r="T3">
-        <v>0.1851392579743236</v>
+        <v>0.1012017862004817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,37 +655,37 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.610946</v>
+        <v>0.4032770000000001</v>
       </c>
       <c r="H4">
-        <v>1.832838</v>
+        <v>1.209831</v>
       </c>
       <c r="I4">
-        <v>0.4232370031894523</v>
+        <v>0.1527122646719238</v>
       </c>
       <c r="J4">
-        <v>0.4232370031894523</v>
+        <v>0.1527122646719238</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.013454</v>
+        <v>0.201254</v>
       </c>
       <c r="N4">
-        <v>0.040362</v>
+        <v>0.603762</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.008219667484</v>
+        <v>0.08116110935800001</v>
       </c>
       <c r="R4">
-        <v>0.073977007356</v>
+        <v>0.7304499842220001</v>
       </c>
       <c r="S4">
-        <v>0.4232370031894523</v>
+        <v>0.1527122646719238</v>
       </c>
       <c r="T4">
-        <v>0.4232370031894523</v>
+        <v>0.1527122646719238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,37 +717,37 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.9928696666666667</v>
+      </c>
+      <c r="H5">
+        <v>2.978609</v>
+      </c>
+      <c r="I5">
+        <v>0.3759782365984789</v>
+      </c>
+      <c r="J5">
+        <v>0.375978236598479</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.359081</v>
-      </c>
-      <c r="H5">
-        <v>1.077243</v>
-      </c>
-      <c r="I5">
-        <v>0.2487558087658676</v>
-      </c>
-      <c r="J5">
-        <v>0.2487558087658676</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.013454</v>
+        <v>0.201254</v>
       </c>
       <c r="N5">
-        <v>0.040362</v>
+        <v>0.603762</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.004831075774</v>
+        <v>0.1998189918953333</v>
       </c>
       <c r="R5">
-        <v>0.043479681966</v>
+        <v>1.798370927058</v>
       </c>
       <c r="S5">
-        <v>0.2487558087658676</v>
+        <v>0.3759782365984789</v>
       </c>
       <c r="T5">
-        <v>0.2487558087658676</v>
+        <v>0.375978236598479</v>
       </c>
     </row>
   </sheetData>
